--- a/codes/test_shell_output/testRowCharFeq.xlsx
+++ b/codes/test_shell_output/testRowCharFeq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>ً</t>
-  </si>
-  <si>
-    <t>ٌ</t>
   </si>
   <si>
     <t>ٍ</t>
@@ -495,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C48"/>
+  <dimension ref="B4:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0.4657828735220351</v>
+        <v>0.6429355496314881</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -519,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.07165890361877464</v>
+        <v>0.1881762584287282</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -527,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>2.00644930132569</v>
+        <v>5.315979300611573</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -535,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.1433178072375493</v>
+        <v>0.04704406460718206</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -543,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5374417771408098</v>
+        <v>0.8624745177983377</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -551,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>0.3941239699032605</v>
+        <v>0.2665830327740317</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>11.60874238624149</v>
+        <v>10.66332131096127</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -567,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>3.152991759226084</v>
+        <v>3.340128587109926</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -575,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1.86313149408814</v>
+        <v>1.724949035596675</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -583,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>2.257255463991401</v>
+        <v>4.296691234122628</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -591,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0.2149767108563239</v>
+        <v>0.3449898071193351</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -599,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>0.7165890361877463</v>
+        <v>1.066332131096127</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -607,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>1.07488355428162</v>
+        <v>1.866081229418222</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.8240773916159083</v>
+        <v>0.7997490983220951</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -623,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>0.8957362952346829</v>
+        <v>2.806962521561863</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -631,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>0.5732712289501971</v>
+        <v>0.7997490983220951</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -639,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>3.439627373701182</v>
+        <v>4.861220009408813</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -647,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2149767108563239</v>
+        <v>0.5174847106790027</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -655,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>1.289860265137943</v>
+        <v>2.132664262192253</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -663,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>1.003224650662845</v>
+        <v>1.160420260310491</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -671,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>0.6449301325689717</v>
+        <v>0.8781558726673985</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -679,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>0.5732712289501971</v>
+        <v>0.6429355496314881</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -687,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>0.8240773916159083</v>
+        <v>0.7683863885839737</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -695,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>0.3941239699032605</v>
+        <v>0.2352203230359103</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -703,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>2.687208885704049</v>
+        <v>2.854006586169045</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -711,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>0.5732712289501971</v>
+        <v>0.501803355809942</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -719,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>2.93801504836976</v>
+        <v>3.19899639328838</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -727,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>1.970619849516302</v>
+        <v>1.803355809941979</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -735,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>1.218201361519169</v>
+        <v>2.806962521561863</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -743,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>9.279828018631315</v>
+        <v>9.220636663007683</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -751,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>4.514510927982802</v>
+        <v>5.69233181746903</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -759,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>4.514510927982802</v>
+        <v>5.660969107730908</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -767,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>3.367968470082408</v>
+        <v>3.575348910145836</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -775,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>5.481906126836259</v>
+        <v>6.241179237886153</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -783,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>0.9673951988534576</v>
+        <v>0.8781558726673985</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -791,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>6.341812970261555</v>
+        <v>9.565626470127018</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -799,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>0.1433178072375493</v>
+        <v>0.3606711619883958</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -807,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>0.4657828735220351</v>
+        <v>0.04704406460718206</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -815,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>0.2866356144750986</v>
+        <v>0.3763525168574565</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -823,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>12.75528484414188</v>
+        <v>0.1881762584287282</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -831,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>2.113937656753852</v>
+        <v>0.2352203230359103</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -839,7 +836,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>3.188821211035471</v>
+        <v>0.5331660655480633</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -847,15 +844,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="1">
-        <v>1.540666427803655</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.4657828735220351</v>
+        <v>0.03136270973812137</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testRowCharFeq.xlsx
+++ b/codes/test_shell_output/testRowCharFeq.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>ً</t>
+  </si>
+  <si>
+    <t>ٌ</t>
   </si>
   <si>
     <t>ٍ</t>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C47"/>
+  <dimension ref="B4:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0.6429355496314881</v>
+        <v>0.2633367312266395</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -516,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.1881762584287282</v>
+        <v>0.127420998980632</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -524,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>5.315979300611573</v>
+        <v>1.529051987767584</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -532,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.04704406460718206</v>
+        <v>0.01698946653075093</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.8624745177983377</v>
+        <v>0.5606523955147809</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -548,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>0.2665830327740317</v>
+        <v>0.09344206591913014</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -556,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>10.66332131096127</v>
+        <v>7.203533809038396</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -564,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>3.340128587109926</v>
+        <v>1.979272850832484</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -572,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1.724949035596675</v>
+        <v>1.010873258579681</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -580,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>4.296691234122628</v>
+        <v>1.766904519198097</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0.3449898071193351</v>
+        <v>0.4417261297995243</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>1.066332131096127</v>
+        <v>0.5436629289840299</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -604,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>1.866081229418222</v>
+        <v>1.036357458375807</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.7997490983220951</v>
+        <v>0.3652735304111451</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -620,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>2.806962521561863</v>
+        <v>1.206252123683316</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -628,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>0.7997490983220951</v>
+        <v>0.4502208630648998</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -636,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>4.861220009408813</v>
+        <v>1.639483520217465</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -644,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>0.5174847106790027</v>
+        <v>0.2633367312266395</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>2.132664262192253</v>
+        <v>1.002378525314305</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -660,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>1.160420260310491</v>
+        <v>0.3312945973496432</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -668,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>0.8781558726673985</v>
+        <v>0.5436629289840299</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -676,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>0.6429355496314881</v>
+        <v>0.3907577302072715</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -684,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>0.7683863885839737</v>
+        <v>0.399252463472647</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -692,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>0.2352203230359103</v>
+        <v>0.1189262657152565</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -700,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>2.854006586169045</v>
+        <v>1.809378185524974</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -708,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>0.501803355809942</v>
+        <v>0.2888209310227659</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -716,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>3.19899639328838</v>
+        <v>1.741420319401971</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -724,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>1.803355809941979</v>
+        <v>1.478083588175331</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -732,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>2.806962521561863</v>
+        <v>0.9683995922528033</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -740,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>9.220636663007683</v>
+        <v>6.974176010873259</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -748,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>5.69233181746903</v>
+        <v>3.814135236153585</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -756,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>5.660969107730908</v>
+        <v>3.244988107373429</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -764,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>3.575348910145836</v>
+        <v>2.633367312266395</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -772,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>6.241179237886153</v>
+        <v>3.550798504926945</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -780,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>0.8781558726673985</v>
+        <v>0.7560312606184166</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -788,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>9.565626470127018</v>
+        <v>3.746177370030581</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -796,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>0.3606711619883958</v>
+        <v>0.2123683316343867</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -804,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>0.04704406460718206</v>
+        <v>0.3652735304111451</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -812,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>0.3763525168574565</v>
+        <v>0.2293577981651376</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -820,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>0.1881762584287282</v>
+        <v>20.20897043832824</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -828,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>0.2352203230359103</v>
+        <v>5.750934420659191</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -836,7 +839,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>0.5331660655480633</v>
+        <v>8.758069996602106</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -844,7 +847,15 @@
         <v>43</v>
       </c>
       <c r="C47" s="1">
-        <v>0.03136270973812137</v>
+        <v>3.007135575942915</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7.17804960924227</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testRowCharFeq.xlsx
+++ b/codes/test_shell_output/testRowCharFeq.xlsx
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0.2633367312266395</v>
+        <v>0.2060696890221057</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.127420998980632</v>
+        <v>0.187336080929187</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.529051987767584</v>
+        <v>1.57362307980517</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>0.01698946653075093</v>
+        <v>0.1124016485575122</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0.5606523955147809</v>
+        <v>0.674409891345073</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>0.09344206591913014</v>
+        <v>0.2622705133008618</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>7.203533809038396</v>
+        <v>7.025103034844511</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>1.979272850832484</v>
+        <v>2.322967403521918</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -575,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>1.010873258579681</v>
+        <v>0.43087298613713</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>1.766904519198097</v>
+        <v>1.798426376920195</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>0.4417261297995243</v>
+        <v>0.5620082427875609</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>0.5436629289840299</v>
+        <v>0.5620082427875609</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>1.036357458375807</v>
+        <v>0.8430123641813413</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -615,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>0.3652735304111451</v>
+        <v>0.3184713375796178</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -623,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>1.206252123683316</v>
+        <v>1.330086174597227</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -631,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>0.4502208630648998</v>
+        <v>0.7680779318096665</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -639,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>1.639483520217465</v>
+        <v>2.173098538778569</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2633367312266395</v>
+        <v>0.2810041213937804</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>1.002378525314305</v>
+        <v>0.8804795803671788</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -663,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>0.3312945973496432</v>
+        <v>0.4496065942300487</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>0.5436629289840299</v>
+        <v>0.3184713375796178</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>0.3907577302072715</v>
+        <v>0.187336080929187</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -687,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>0.399252463472647</v>
+        <v>0.2997377294866991</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -695,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>0.1189262657152565</v>
+        <v>0.187336080929187</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -703,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>1.809378185524974</v>
+        <v>1.704758336455601</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -711,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>0.2888209310227659</v>
+        <v>0.187336080929187</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>1.741420319401971</v>
+        <v>1.273885350318471</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -727,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>1.478083588175331</v>
+        <v>1.086549269389284</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -735,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>0.9683995922528033</v>
+        <v>1.44248782315474</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -743,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>6.974176010873259</v>
+        <v>5.826152116897714</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -751,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>3.814135236153585</v>
+        <v>4.346197077557138</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -759,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>3.244988107373429</v>
+        <v>4.158860996627951</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -767,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>2.633367312266395</v>
+        <v>3.072311727238666</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -775,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>3.550798504926945</v>
+        <v>3.521918321468715</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -783,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>0.7560312606184166</v>
+        <v>0.4121393780442113</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -791,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>3.746177370030581</v>
+        <v>3.091045335331585</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -799,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>0.2123683316343867</v>
+        <v>1.479955039340577</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>0.3652735304111451</v>
+        <v>0.3184713375796178</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -815,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>0.2293577981651376</v>
+        <v>0.3372049456725365</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -823,7 +823,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="1">
-        <v>20.20897043832824</v>
+        <v>19.95129261895841</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -831,7 +831,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="1">
-        <v>5.750934420659191</v>
+        <v>5.713750468340202</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -839,7 +839,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>8.758069996602106</v>
+        <v>7.905582615211689</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -847,7 +847,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="1">
-        <v>3.007135575942915</v>
+        <v>2.360434619707756</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -855,7 +855,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="1">
-        <v>7.17804960924227</v>
+        <v>8.055451479955039</v>
       </c>
     </row>
   </sheetData>
